--- a/data/pca/factorExposure/factorExposure_2016-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01798056074660327</v>
+        <v>-0.01627039649083369</v>
       </c>
       <c r="C2">
-        <v>0.04413336307444173</v>
+        <v>-0.04107182268424427</v>
       </c>
       <c r="D2">
-        <v>0.0246139003153471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05593939240067636</v>
+      </c>
+      <c r="E2">
+        <v>0.02056698713801353</v>
+      </c>
+      <c r="F2">
+        <v>0.09371037093944885</v>
+      </c>
+      <c r="G2">
+        <v>0.0301695194907977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05467985535718695</v>
+        <v>-0.03399872680043283</v>
       </c>
       <c r="C3">
-        <v>0.09889173427473533</v>
+        <v>-0.08370384933838655</v>
       </c>
       <c r="D3">
-        <v>0.03786037881111407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0949049281056103</v>
+      </c>
+      <c r="E3">
+        <v>0.02578427938025143</v>
+      </c>
+      <c r="F3">
+        <v>0.07540385161881025</v>
+      </c>
+      <c r="G3">
+        <v>-0.06912143654440032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06183587831190186</v>
+        <v>-0.05877401111176737</v>
       </c>
       <c r="C4">
-        <v>0.06590532416213127</v>
+        <v>-0.0618139045128821</v>
       </c>
       <c r="D4">
-        <v>0.01165044191782627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05698257489826731</v>
+      </c>
+      <c r="E4">
+        <v>0.01467055971314751</v>
+      </c>
+      <c r="F4">
+        <v>0.0943410189199918</v>
+      </c>
+      <c r="G4">
+        <v>-0.03359407305210432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0263367511492023</v>
+        <v>-0.0350961340271613</v>
       </c>
       <c r="C6">
-        <v>0.05022975560792128</v>
+        <v>-0.03885006963678698</v>
       </c>
       <c r="D6">
-        <v>0.01185853542303947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06494743825555524</v>
+      </c>
+      <c r="E6">
+        <v>0.01828615930449281</v>
+      </c>
+      <c r="F6">
+        <v>0.0878913721188616</v>
+      </c>
+      <c r="G6">
+        <v>-0.01284645817854892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0224320729403596</v>
+        <v>-0.0215398989079167</v>
       </c>
       <c r="C7">
-        <v>0.04495680916363117</v>
+        <v>-0.03642343491985516</v>
       </c>
       <c r="D7">
-        <v>-0.009822317225512925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03226438318345672</v>
+      </c>
+      <c r="E7">
+        <v>0.0006891787355359969</v>
+      </c>
+      <c r="F7">
+        <v>0.1193659651449752</v>
+      </c>
+      <c r="G7">
+        <v>0.003113859528569812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0008511462688109221</v>
+        <v>-0.005913943160625029</v>
       </c>
       <c r="C8">
-        <v>0.01248690634156416</v>
+        <v>-0.02020588211427696</v>
       </c>
       <c r="D8">
-        <v>0.01561941635853768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03483272995560016</v>
+      </c>
+      <c r="E8">
+        <v>0.01359608792627974</v>
+      </c>
+      <c r="F8">
+        <v>0.06660380065056987</v>
+      </c>
+      <c r="G8">
+        <v>-0.00788446255293236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02722257225806224</v>
+        <v>-0.03692216526218967</v>
       </c>
       <c r="C9">
-        <v>0.0464161412223822</v>
+        <v>-0.04929942596426958</v>
       </c>
       <c r="D9">
-        <v>0.004847106885817532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04086818001746239</v>
+      </c>
+      <c r="E9">
+        <v>0.009681969562276699</v>
+      </c>
+      <c r="F9">
+        <v>0.09822983960602283</v>
+      </c>
+      <c r="G9">
+        <v>-0.01581002803709341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07984885247638666</v>
+        <v>-0.09505653349611939</v>
       </c>
       <c r="C10">
-        <v>-0.1959775708897055</v>
+        <v>0.1912162884629861</v>
       </c>
       <c r="D10">
-        <v>0.02085095111144425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005941498030828838</v>
+      </c>
+      <c r="E10">
+        <v>0.03684707711183604</v>
+      </c>
+      <c r="F10">
+        <v>0.04647822493743246</v>
+      </c>
+      <c r="G10">
+        <v>-0.002164649886078688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04191340569899978</v>
+        <v>-0.03731996360173544</v>
       </c>
       <c r="C11">
-        <v>0.05485145751382479</v>
+        <v>-0.05087686952709215</v>
       </c>
       <c r="D11">
-        <v>-0.005262791694522526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0276971693240242</v>
+      </c>
+      <c r="E11">
+        <v>-0.01304557160848298</v>
+      </c>
+      <c r="F11">
+        <v>0.06874741896748063</v>
+      </c>
+      <c r="G11">
+        <v>-0.009083389658254198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03575104180318747</v>
+        <v>-0.03777720126236021</v>
       </c>
       <c r="C12">
-        <v>0.04578792554468539</v>
+        <v>-0.04622009235170427</v>
       </c>
       <c r="D12">
-        <v>-0.005420849534846561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02141474947293132</v>
+      </c>
+      <c r="E12">
+        <v>-0.003936270552262576</v>
+      </c>
+      <c r="F12">
+        <v>0.07102944280828519</v>
+      </c>
+      <c r="G12">
+        <v>-0.004958631051582871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01114770272888849</v>
+        <v>-0.01444871100456529</v>
       </c>
       <c r="C13">
-        <v>0.04119614871390645</v>
+        <v>-0.03972824967001796</v>
       </c>
       <c r="D13">
-        <v>0.022177767560004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06213012425608526</v>
+      </c>
+      <c r="E13">
+        <v>0.03096344113994566</v>
+      </c>
+      <c r="F13">
+        <v>0.1343650655375074</v>
+      </c>
+      <c r="G13">
+        <v>-0.01563786230587209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006514752175136544</v>
+        <v>-0.007239906563901175</v>
       </c>
       <c r="C14">
-        <v>0.02961570031486606</v>
+        <v>-0.02546864777879931</v>
       </c>
       <c r="D14">
-        <v>-0.01328013383811122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0243605616015697</v>
+      </c>
+      <c r="E14">
+        <v>0.007009635981168098</v>
+      </c>
+      <c r="F14">
+        <v>0.1050489589326535</v>
+      </c>
+      <c r="G14">
+        <v>0.01171148581605937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001462907018952747</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001243691863133163</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001527311523723249</v>
+      </c>
+      <c r="E15">
+        <v>-0.001106768727918547</v>
+      </c>
+      <c r="F15">
+        <v>0.0005725663672078848</v>
+      </c>
+      <c r="G15">
+        <v>0.0007916143911345085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03507704706080666</v>
+        <v>-0.03445701445874075</v>
       </c>
       <c r="C16">
-        <v>0.0404036097988873</v>
+        <v>-0.04406881982888172</v>
       </c>
       <c r="D16">
-        <v>0.001980334152773218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02520324746420604</v>
+      </c>
+      <c r="E16">
+        <v>0.002255797365071477</v>
+      </c>
+      <c r="F16">
+        <v>0.0742713456425565</v>
+      </c>
+      <c r="G16">
+        <v>0.004773801768446941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03089320659820964</v>
+        <v>-0.01938327476038965</v>
       </c>
       <c r="C19">
-        <v>0.05992341593511191</v>
+        <v>-0.04873351682169242</v>
       </c>
       <c r="D19">
-        <v>0.0449575667777913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1002009078158636</v>
+      </c>
+      <c r="E19">
+        <v>0.03696219082625028</v>
+      </c>
+      <c r="F19">
+        <v>0.1334079330007532</v>
+      </c>
+      <c r="G19">
+        <v>0.01818000053990997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01441799034918205</v>
+        <v>-0.01492809429568645</v>
       </c>
       <c r="C20">
-        <v>0.04445672436285539</v>
+        <v>-0.03875955155700424</v>
       </c>
       <c r="D20">
-        <v>0.02495730243770291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04654857061802313</v>
+      </c>
+      <c r="E20">
+        <v>0.03624811876534579</v>
+      </c>
+      <c r="F20">
+        <v>0.1012097910720268</v>
+      </c>
+      <c r="G20">
+        <v>0.002522303231902335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.006724902186035298</v>
+        <v>-0.009653015043620471</v>
       </c>
       <c r="C21">
-        <v>0.0399867695452099</v>
+        <v>-0.03908093836011994</v>
       </c>
       <c r="D21">
-        <v>0.03070962276165229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06341746985862705</v>
+      </c>
+      <c r="E21">
+        <v>0.03168489664717462</v>
+      </c>
+      <c r="F21">
+        <v>0.1494519827216454</v>
+      </c>
+      <c r="G21">
+        <v>-0.0007076287205524172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.003719065067224444</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01458269566597688</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02807741810128158</v>
+      </c>
+      <c r="E22">
+        <v>0.001338927048480236</v>
+      </c>
+      <c r="F22">
+        <v>0.01969853832274764</v>
+      </c>
+      <c r="G22">
+        <v>-0.03515824724400721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.003773429190062339</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01453443034535985</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02782035225123325</v>
+      </c>
+      <c r="E23">
+        <v>0.001644851932750963</v>
+      </c>
+      <c r="F23">
+        <v>0.01943094471855199</v>
+      </c>
+      <c r="G23">
+        <v>-0.03516410413282962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02948450907889127</v>
+        <v>-0.03290474228470389</v>
       </c>
       <c r="C24">
-        <v>0.04764766672504998</v>
+        <v>-0.05162760046538426</v>
       </c>
       <c r="D24">
-        <v>-0.006467096322821494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02318653155737027</v>
+      </c>
+      <c r="E24">
+        <v>-0.003714187895414393</v>
+      </c>
+      <c r="F24">
+        <v>0.07868212234972016</v>
+      </c>
+      <c r="G24">
+        <v>-0.000585285742109786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04667080945513014</v>
+        <v>-0.04323220731838653</v>
       </c>
       <c r="C25">
-        <v>0.05622904920300674</v>
+        <v>-0.0567062168410448</v>
       </c>
       <c r="D25">
-        <v>-0.01787462265889623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01844255975466011</v>
+      </c>
+      <c r="E25">
+        <v>-0.006351487426890369</v>
+      </c>
+      <c r="F25">
+        <v>0.08318300008191645</v>
+      </c>
+      <c r="G25">
+        <v>-0.0180399709630472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008294060943732346</v>
+        <v>-0.01486688809942379</v>
       </c>
       <c r="C26">
-        <v>0.01379821389442556</v>
+        <v>-0.01277603384733911</v>
       </c>
       <c r="D26">
-        <v>0.002885685411066569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01866096303801325</v>
+      </c>
+      <c r="E26">
+        <v>0.008977043868845685</v>
+      </c>
+      <c r="F26">
+        <v>0.08341824969567252</v>
+      </c>
+      <c r="G26">
+        <v>0.0166599072072256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0936532217174892</v>
+        <v>-0.1281878608202738</v>
       </c>
       <c r="C28">
-        <v>-0.2237246457167409</v>
+        <v>0.2425580047457264</v>
       </c>
       <c r="D28">
-        <v>0.01471401883402728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01184470861016753</v>
+      </c>
+      <c r="E28">
+        <v>0.03781323271251669</v>
+      </c>
+      <c r="F28">
+        <v>0.0592174435478903</v>
+      </c>
+      <c r="G28">
+        <v>-0.01057095155398603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01164469455140081</v>
+        <v>-0.008017499159091911</v>
       </c>
       <c r="C29">
-        <v>0.02263748434257145</v>
+        <v>-0.02236377464910001</v>
       </c>
       <c r="D29">
-        <v>-0.01249154108008156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01516214401563538</v>
+      </c>
+      <c r="E29">
+        <v>0.01129472806555001</v>
+      </c>
+      <c r="F29">
+        <v>0.09722088314259889</v>
+      </c>
+      <c r="G29">
+        <v>-0.0005172312016134766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04141717500661672</v>
+        <v>-0.03893794087828314</v>
       </c>
       <c r="C30">
-        <v>0.07240349760234067</v>
+        <v>-0.06184192691419711</v>
       </c>
       <c r="D30">
-        <v>0.00662862978334022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09627772467879216</v>
+      </c>
+      <c r="E30">
+        <v>-0.01288292706926328</v>
+      </c>
+      <c r="F30">
+        <v>0.1115062431638319</v>
+      </c>
+      <c r="G30">
+        <v>0.02400665757814596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04203626123825493</v>
+        <v>-0.05725879518721076</v>
       </c>
       <c r="C31">
-        <v>0.03207958313350072</v>
+        <v>-0.04464832771095957</v>
       </c>
       <c r="D31">
-        <v>-0.006110250490971233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0009073833758654031</v>
+      </c>
+      <c r="E31">
+        <v>0.0336736215608882</v>
+      </c>
+      <c r="F31">
+        <v>0.09211406126638702</v>
+      </c>
+      <c r="G31">
+        <v>-0.03630758915442372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00858477259517843</v>
+        <v>-0.004363194761250832</v>
       </c>
       <c r="C32">
-        <v>0.03431915225237031</v>
+        <v>-0.02885052779572897</v>
       </c>
       <c r="D32">
-        <v>0.01633831717065766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04425749072432623</v>
+      </c>
+      <c r="E32">
+        <v>8.955883486265556e-05</v>
+      </c>
+      <c r="F32">
+        <v>0.07684710063327346</v>
+      </c>
+      <c r="G32">
+        <v>0.006831706546266735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02981436618334576</v>
+        <v>-0.0262242943416715</v>
       </c>
       <c r="C33">
-        <v>0.05948104302049477</v>
+        <v>-0.0504549158238773</v>
       </c>
       <c r="D33">
-        <v>0.01483502937112239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07383851570891671</v>
+      </c>
+      <c r="E33">
+        <v>0.01059101035402396</v>
+      </c>
+      <c r="F33">
+        <v>0.1466992566644851</v>
+      </c>
+      <c r="G33">
+        <v>-0.01454521880327391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05232269198298933</v>
+        <v>-0.04302326076781825</v>
       </c>
       <c r="C34">
-        <v>0.05477675047508761</v>
+        <v>-0.0620027147532378</v>
       </c>
       <c r="D34">
-        <v>-0.01286572667787833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02612112399784757</v>
+      </c>
+      <c r="E34">
+        <v>-0.02022553621682299</v>
+      </c>
+      <c r="F34">
+        <v>0.07635396826393452</v>
+      </c>
+      <c r="G34">
+        <v>-0.005202762954859543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.00874257851547822</v>
+        <v>-0.01561960677123522</v>
       </c>
       <c r="C36">
-        <v>0.009037114442724592</v>
+        <v>-0.008800401854576083</v>
       </c>
       <c r="D36">
-        <v>-0.001957504395062834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02085679119532836</v>
+      </c>
+      <c r="E36">
+        <v>0.01345604240126608</v>
+      </c>
+      <c r="F36">
+        <v>0.09558924824689857</v>
+      </c>
+      <c r="G36">
+        <v>-0.007568835762398414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03646061181102501</v>
+        <v>-0.0285274781910073</v>
       </c>
       <c r="C38">
-        <v>0.02196238778817933</v>
+        <v>-0.02164749537609057</v>
       </c>
       <c r="D38">
-        <v>-0.006997950290594298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02215478343326269</v>
+      </c>
+      <c r="E38">
+        <v>0.01479394819816722</v>
+      </c>
+      <c r="F38">
+        <v>0.08479392582764314</v>
+      </c>
+      <c r="G38">
+        <v>-0.00827967846923767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03851981772228374</v>
+        <v>-0.03767931848390868</v>
       </c>
       <c r="C39">
-        <v>0.08266074717913435</v>
+        <v>-0.07164073895645155</v>
       </c>
       <c r="D39">
-        <v>0.01484158555047633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05178489372731866</v>
+      </c>
+      <c r="E39">
+        <v>-0.01266752902226202</v>
+      </c>
+      <c r="F39">
+        <v>0.08864466544931708</v>
+      </c>
+      <c r="G39">
+        <v>0.02949583134868476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01773579040854742</v>
+        <v>-0.01813407192691698</v>
       </c>
       <c r="C40">
-        <v>0.02632617368071741</v>
+        <v>-0.03733642527441874</v>
       </c>
       <c r="D40">
-        <v>0.02473532331023754</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03577008570570354</v>
+      </c>
+      <c r="E40">
+        <v>0.03488653494941774</v>
+      </c>
+      <c r="F40">
+        <v>0.1153544904581731</v>
+      </c>
+      <c r="G40">
+        <v>-0.04563503543135444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01040338204206796</v>
+        <v>-0.0183304783894727</v>
       </c>
       <c r="C41">
-        <v>0.0008963536943209007</v>
+        <v>-0.002087423071693043</v>
       </c>
       <c r="D41">
-        <v>-0.006942548736793471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01544811855068048</v>
+      </c>
+      <c r="E41">
+        <v>0.0186134114317793</v>
+      </c>
+      <c r="F41">
+        <v>0.08535403795317421</v>
+      </c>
+      <c r="G41">
+        <v>-0.0004900969642740125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005701194502896926</v>
+        <v>-0.003447949539777737</v>
       </c>
       <c r="C42">
-        <v>0.03173468049706592</v>
+        <v>-0.01669132107337001</v>
       </c>
       <c r="D42">
-        <v>0.01848106044708077</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.01395777905636133</v>
+      </c>
+      <c r="E42">
+        <v>0.00161064641553782</v>
+      </c>
+      <c r="F42">
+        <v>-0.02003827257967017</v>
+      </c>
+      <c r="G42">
+        <v>-0.005906595417696561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03128425791646712</v>
+        <v>-0.03164957590326528</v>
       </c>
       <c r="C43">
-        <v>0.01322597366334005</v>
+        <v>-0.01501433523857558</v>
       </c>
       <c r="D43">
-        <v>-0.003251518258188174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0350043657882898</v>
+      </c>
+      <c r="E43">
+        <v>0.01503632912193745</v>
+      </c>
+      <c r="F43">
+        <v>0.1063613245705434</v>
+      </c>
+      <c r="G43">
+        <v>-0.02344384428151026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02121188864175677</v>
+        <v>-0.01640103641873072</v>
       </c>
       <c r="C44">
-        <v>0.05504908156154891</v>
+        <v>-0.05289883662592198</v>
       </c>
       <c r="D44">
-        <v>0.009253264336853664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04077377984695071</v>
+      </c>
+      <c r="E44">
+        <v>0.0271327446201552</v>
+      </c>
+      <c r="F44">
+        <v>0.1128806551362081</v>
+      </c>
+      <c r="G44">
+        <v>0.007258014033426931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0009221341600269229</v>
+        <v>-0.01020968338213146</v>
       </c>
       <c r="C46">
-        <v>0.01511890463905197</v>
+        <v>-0.01760858646528027</v>
       </c>
       <c r="D46">
-        <v>-0.01269288613191382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.007701570693051519</v>
+      </c>
+      <c r="E46">
+        <v>0.01740808502629415</v>
+      </c>
+      <c r="F46">
+        <v>0.1089169002887638</v>
+      </c>
+      <c r="G46">
+        <v>0.006044513260447852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07731384953464399</v>
+        <v>-0.08833052846761213</v>
       </c>
       <c r="C47">
-        <v>0.07063941682884656</v>
+        <v>-0.07522220080504562</v>
       </c>
       <c r="D47">
-        <v>-0.004223103697137799</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008322425881040712</v>
+      </c>
+      <c r="E47">
+        <v>0.04231022628717221</v>
+      </c>
+      <c r="F47">
+        <v>0.09075334838122266</v>
+      </c>
+      <c r="G47">
+        <v>-0.04022177421549793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01751565110139526</v>
+        <v>-0.01692608517455495</v>
       </c>
       <c r="C48">
-        <v>0.01058653215097873</v>
+        <v>-0.01496263526729614</v>
       </c>
       <c r="D48">
-        <v>-0.005678103509097031</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01446542720869607</v>
+      </c>
+      <c r="E48">
+        <v>0.02306998456443132</v>
+      </c>
+      <c r="F48">
+        <v>0.1073800650425673</v>
+      </c>
+      <c r="G48">
+        <v>-0.00186279127866727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08648232264620355</v>
+        <v>-0.07408831091294348</v>
       </c>
       <c r="C50">
-        <v>0.06830225080710263</v>
+        <v>-0.06750178646977077</v>
       </c>
       <c r="D50">
-        <v>-0.01842591143600633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0001003123338568393</v>
+      </c>
+      <c r="E50">
+        <v>0.03460624124746238</v>
+      </c>
+      <c r="F50">
+        <v>0.08708743389887648</v>
+      </c>
+      <c r="G50">
+        <v>-0.07043570730749567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01294721026686343</v>
+        <v>-0.01102584784543413</v>
       </c>
       <c r="C51">
-        <v>0.04253460788937009</v>
+        <v>-0.03322104320569715</v>
       </c>
       <c r="D51">
-        <v>0.0001617352649739525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04335779837832981</v>
+      </c>
+      <c r="E51">
+        <v>-0.002833217550943355</v>
+      </c>
+      <c r="F51">
+        <v>0.09481890128315128</v>
+      </c>
+      <c r="G51">
+        <v>0.01742433100519509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09554074173085851</v>
+        <v>-0.09189906364900491</v>
       </c>
       <c r="C53">
-        <v>0.07145257692486263</v>
+        <v>-0.08512730992785303</v>
       </c>
       <c r="D53">
-        <v>-0.02822046808083269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03350180897523919</v>
+      </c>
+      <c r="E53">
+        <v>0.0477934207188826</v>
+      </c>
+      <c r="F53">
+        <v>0.09807226766219124</v>
+      </c>
+      <c r="G53">
+        <v>-0.04603098581776349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03027437778271773</v>
+        <v>-0.03091064421934218</v>
       </c>
       <c r="C54">
-        <v>0.006302714985342092</v>
+        <v>-0.02062665696430309</v>
       </c>
       <c r="D54">
-        <v>0.0003639145428284201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02738744861289143</v>
+      </c>
+      <c r="E54">
+        <v>0.0119520550928951</v>
+      </c>
+      <c r="F54">
+        <v>0.1091284047081741</v>
+      </c>
+      <c r="G54">
+        <v>-0.003598549067062039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07346561950109412</v>
+        <v>-0.0839393349918035</v>
       </c>
       <c r="C55">
-        <v>0.06601793461695075</v>
+        <v>-0.06775460393786334</v>
       </c>
       <c r="D55">
-        <v>-0.02517841933472015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03982760505234958</v>
+      </c>
+      <c r="E55">
+        <v>0.04621686039068512</v>
+      </c>
+      <c r="F55">
+        <v>0.06586845985474431</v>
+      </c>
+      <c r="G55">
+        <v>-0.038581684929807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1506587644830229</v>
+        <v>-0.1456105645884141</v>
       </c>
       <c r="C56">
-        <v>0.09139670058944652</v>
+        <v>-0.1011164283716337</v>
       </c>
       <c r="D56">
-        <v>-0.01983706583409076</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04013893322583927</v>
+      </c>
+      <c r="E56">
+        <v>0.05112237931143695</v>
+      </c>
+      <c r="F56">
+        <v>0.0583886526092287</v>
+      </c>
+      <c r="G56">
+        <v>-0.0456586530511295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005220793841154024</v>
+        <v>-0.002214374137793461</v>
       </c>
       <c r="C57">
-        <v>0.006074000835052263</v>
+        <v>-0.002865696016596106</v>
       </c>
       <c r="D57">
-        <v>0.03252629252535234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02431839781034</v>
+      </c>
+      <c r="E57">
+        <v>0.009298423993412878</v>
+      </c>
+      <c r="F57">
+        <v>0.009116603235722415</v>
+      </c>
+      <c r="G57">
+        <v>0.004226321519470777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06167132119224362</v>
+        <v>-0.03728525749217473</v>
       </c>
       <c r="C58">
-        <v>0.06346411964449609</v>
+        <v>-0.03397060431406911</v>
       </c>
       <c r="D58">
-        <v>0.9666595044697097</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6505551536383172</v>
+      </c>
+      <c r="E58">
+        <v>0.6512764981386949</v>
+      </c>
+      <c r="F58">
+        <v>-0.3221155565191618</v>
+      </c>
+      <c r="G58">
+        <v>-0.004720940904493431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1381457086900701</v>
+        <v>-0.1465751650177341</v>
       </c>
       <c r="C59">
-        <v>-0.2155294233468886</v>
+        <v>0.2005420873628758</v>
       </c>
       <c r="D59">
-        <v>0.01571251326302036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02205196606463578</v>
+      </c>
+      <c r="E59">
+        <v>0.01484795177062739</v>
+      </c>
+      <c r="F59">
+        <v>0.0333400632973401</v>
+      </c>
+      <c r="G59">
+        <v>0.02321318761216986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.316135176962924</v>
+        <v>-0.2845465455319842</v>
       </c>
       <c r="C60">
-        <v>0.08496807282941844</v>
+        <v>-0.09071846507139035</v>
       </c>
       <c r="D60">
-        <v>-0.008059143912361318</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1587923081817623</v>
+      </c>
+      <c r="E60">
+        <v>-0.2882673377314739</v>
+      </c>
+      <c r="F60">
+        <v>-0.1422629052961693</v>
+      </c>
+      <c r="G60">
+        <v>-0.06404576370258767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0362638861942866</v>
+        <v>-0.04066809801341175</v>
       </c>
       <c r="C61">
-        <v>0.06180180913626095</v>
+        <v>-0.06129141453225799</v>
       </c>
       <c r="D61">
-        <v>0.01097646765908895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04336409410306135</v>
+      </c>
+      <c r="E61">
+        <v>-0.002837811535548922</v>
+      </c>
+      <c r="F61">
+        <v>0.08727607693347723</v>
+      </c>
+      <c r="G61">
+        <v>-0.005039240283050627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01594570545124944</v>
+        <v>-0.01697897540048551</v>
       </c>
       <c r="C63">
-        <v>0.02879212063053038</v>
+        <v>-0.02863297407976948</v>
       </c>
       <c r="D63">
-        <v>-0.01215973094810089</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01513606917990672</v>
+      </c>
+      <c r="E63">
+        <v>0.01464319416615151</v>
+      </c>
+      <c r="F63">
+        <v>0.09009782257158086</v>
+      </c>
+      <c r="G63">
+        <v>-0.02464279867561447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04792635224872021</v>
+        <v>-0.05412529249307122</v>
       </c>
       <c r="C64">
-        <v>0.02968115336376992</v>
+        <v>-0.04947298687804153</v>
       </c>
       <c r="D64">
-        <v>-0.01128892804998373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01138518995302686</v>
+      </c>
+      <c r="E64">
+        <v>-0.001057783011256295</v>
+      </c>
+      <c r="F64">
+        <v>0.09367764835702047</v>
+      </c>
+      <c r="G64">
+        <v>0.008433093909254839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08889206920879099</v>
+        <v>-0.06828061171489302</v>
       </c>
       <c r="C65">
-        <v>0.05917862703785782</v>
+        <v>-0.04228119704049356</v>
       </c>
       <c r="D65">
-        <v>0.009719391829323543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07694617015080621</v>
+      </c>
+      <c r="E65">
+        <v>-0.007051823111673655</v>
+      </c>
+      <c r="F65">
+        <v>0.03922047254058787</v>
+      </c>
+      <c r="G65">
+        <v>0.002256011066394683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06319476555010375</v>
+        <v>-0.05159144648777582</v>
       </c>
       <c r="C66">
-        <v>0.1170634392564352</v>
+        <v>-0.09536495400632339</v>
       </c>
       <c r="D66">
-        <v>0.01701077629300126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07621918233747224</v>
+      </c>
+      <c r="E66">
+        <v>-0.01553721039407513</v>
+      </c>
+      <c r="F66">
+        <v>0.094216302600979</v>
+      </c>
+      <c r="G66">
+        <v>0.009396054738271627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06184298899394585</v>
+        <v>-0.05105990571823942</v>
       </c>
       <c r="C67">
-        <v>0.02661602394475913</v>
+        <v>-0.02652940685648643</v>
       </c>
       <c r="D67">
-        <v>-0.01347287136596808</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008236183552557248</v>
+      </c>
+      <c r="E67">
+        <v>0.006640532701476545</v>
+      </c>
+      <c r="F67">
+        <v>0.06927393241333164</v>
+      </c>
+      <c r="G67">
+        <v>-0.01318228705331271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1204151003918843</v>
+        <v>-0.1499566549740937</v>
       </c>
       <c r="C68">
-        <v>-0.2901747745756037</v>
+        <v>0.2636602672830082</v>
       </c>
       <c r="D68">
-        <v>0.02349774709897821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01364284468261429</v>
+      </c>
+      <c r="E68">
+        <v>0.0417632257007581</v>
+      </c>
+      <c r="F68">
+        <v>0.02215031079781029</v>
+      </c>
+      <c r="G68">
+        <v>-0.002887630565946561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08585830258789157</v>
+        <v>-0.08786627758168865</v>
       </c>
       <c r="C69">
-        <v>0.06678203503628509</v>
+        <v>-0.08131229219886199</v>
       </c>
       <c r="D69">
-        <v>-0.03263924259724738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01118848194283133</v>
+      </c>
+      <c r="E69">
+        <v>0.01355671596503834</v>
+      </c>
+      <c r="F69">
+        <v>0.09882487508771969</v>
+      </c>
+      <c r="G69">
+        <v>-0.01393898195742729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1219118276183526</v>
+        <v>-0.1388162170571741</v>
       </c>
       <c r="C71">
-        <v>-0.2403752549199748</v>
+        <v>0.2375561373171675</v>
       </c>
       <c r="D71">
-        <v>0.02767180886143686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01993259906316385</v>
+      </c>
+      <c r="E71">
+        <v>0.04324232260786672</v>
+      </c>
+      <c r="F71">
+        <v>0.06748379290767384</v>
+      </c>
+      <c r="G71">
+        <v>-0.0217300739357407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07894640992098528</v>
+        <v>-0.08887754028970257</v>
       </c>
       <c r="C72">
-        <v>0.05794865092634791</v>
+        <v>-0.05724272163655116</v>
       </c>
       <c r="D72">
-        <v>-0.03871590023013919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01003921185343763</v>
+      </c>
+      <c r="E72">
+        <v>-0.02166306045397996</v>
+      </c>
+      <c r="F72">
+        <v>0.07865521145137171</v>
+      </c>
+      <c r="G72">
+        <v>-0.01258515970584373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4448630179597992</v>
+        <v>-0.3541236599120776</v>
       </c>
       <c r="C73">
-        <v>0.07974005368712797</v>
+        <v>-0.07103613659070976</v>
       </c>
       <c r="D73">
-        <v>0.02304960091402596</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3421191958029495</v>
+      </c>
+      <c r="E73">
+        <v>-0.5162414896177326</v>
+      </c>
+      <c r="F73">
+        <v>-0.3344258298483628</v>
+      </c>
+      <c r="G73">
+        <v>-0.1335588768281411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1178361939111881</v>
+        <v>-0.1127076373709358</v>
       </c>
       <c r="C74">
-        <v>0.1141633348573165</v>
+        <v>-0.1012832654211887</v>
       </c>
       <c r="D74">
-        <v>-0.02233092896194048</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01825247507347996</v>
+      </c>
+      <c r="E74">
+        <v>0.06370286549635817</v>
+      </c>
+      <c r="F74">
+        <v>0.07775623619483098</v>
+      </c>
+      <c r="G74">
+        <v>-0.06223669232861113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2592013180991716</v>
+        <v>-0.2564418902937681</v>
       </c>
       <c r="C75">
-        <v>0.1236699756669105</v>
+        <v>-0.1380712601031606</v>
       </c>
       <c r="D75">
-        <v>-0.03924705659691426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1029114861721803</v>
+      </c>
+      <c r="E75">
+        <v>0.1143097810888544</v>
+      </c>
+      <c r="F75">
+        <v>0.02306649222136945</v>
+      </c>
+      <c r="G75">
+        <v>-0.05885936306702837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174972910544907</v>
+        <v>-0.1292139274193334</v>
       </c>
       <c r="C76">
-        <v>0.1017808558441594</v>
+        <v>-0.1034151522459405</v>
       </c>
       <c r="D76">
-        <v>-0.03350556192990068</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04743003284765961</v>
+      </c>
+      <c r="E76">
+        <v>0.07904968819548179</v>
+      </c>
+      <c r="F76">
+        <v>0.07947878203578296</v>
+      </c>
+      <c r="G76">
+        <v>-0.04904242319485037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07171691852520176</v>
+        <v>-0.06667462252667374</v>
       </c>
       <c r="C77">
-        <v>0.05659914603929825</v>
+        <v>-0.06350499250909264</v>
       </c>
       <c r="D77">
-        <v>0.03492530515689826</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06063944936834344</v>
+      </c>
+      <c r="E77">
+        <v>0.03657759288258416</v>
+      </c>
+      <c r="F77">
+        <v>0.1121905791967477</v>
+      </c>
+      <c r="G77">
+        <v>0.1360196412335751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04457721105329381</v>
+        <v>-0.04205331972536486</v>
       </c>
       <c r="C78">
-        <v>0.04633171180836931</v>
+        <v>-0.05428372859885515</v>
       </c>
       <c r="D78">
-        <v>0.007950284265052704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06294605645168788</v>
+      </c>
+      <c r="E78">
+        <v>-0.01951158922980418</v>
+      </c>
+      <c r="F78">
+        <v>0.09993202599090963</v>
+      </c>
+      <c r="G78">
+        <v>0.0002925679063509527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.01061217939847807</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0328766381393828</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03778116613036511</v>
+      </c>
+      <c r="E79">
+        <v>0.04155297165527928</v>
+      </c>
+      <c r="F79">
+        <v>0.02998394295672369</v>
+      </c>
+      <c r="G79">
+        <v>-0.03581850272494204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04998613109519995</v>
+        <v>-0.03973153912618211</v>
       </c>
       <c r="C80">
-        <v>0.05404616923796103</v>
+        <v>-0.04436943216169286</v>
       </c>
       <c r="D80">
-        <v>0.02285084716929663</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04566059592152563</v>
+      </c>
+      <c r="E80">
+        <v>0.001208419193906551</v>
+      </c>
+      <c r="F80">
+        <v>0.03985348383106335</v>
+      </c>
+      <c r="G80">
+        <v>0.04556740691191919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1361956234127226</v>
+        <v>-0.1413012422319712</v>
       </c>
       <c r="C81">
-        <v>0.0802876609279317</v>
+        <v>-0.09427503310038302</v>
       </c>
       <c r="D81">
-        <v>-0.02438779807579798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07467797852102837</v>
+      </c>
+      <c r="E81">
+        <v>0.09553653025763251</v>
+      </c>
+      <c r="F81">
+        <v>0.03748732466437416</v>
+      </c>
+      <c r="G81">
+        <v>-0.05105921602801911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.0690274507816477</v>
+        <v>-0.1912446907913038</v>
       </c>
       <c r="C82">
-        <v>0.04134007977295865</v>
+        <v>-0.1346936403416819</v>
       </c>
       <c r="D82">
-        <v>-0.02275437731126023</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2133873049099728</v>
+      </c>
+      <c r="E82">
+        <v>0.05266122595034122</v>
+      </c>
+      <c r="F82">
+        <v>0.05265523575155105</v>
+      </c>
+      <c r="G82">
+        <v>-0.008694122388957589</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02672208446511875</v>
+        <v>-0.02722611512460168</v>
       </c>
       <c r="C83">
-        <v>0.02045478808473158</v>
+        <v>-0.03650749199274195</v>
       </c>
       <c r="D83">
-        <v>0.01766651527476627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03277368953824841</v>
+      </c>
+      <c r="E83">
+        <v>-0.006210575910931428</v>
+      </c>
+      <c r="F83">
+        <v>0.05083062276631483</v>
+      </c>
+      <c r="G83">
+        <v>0.02767497513899785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2429106070307136</v>
+        <v>-0.2101795784498661</v>
       </c>
       <c r="C85">
-        <v>0.1200419912418017</v>
+        <v>-0.121761155246675</v>
       </c>
       <c r="D85">
-        <v>-0.1115097846690026</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1028142946135272</v>
+      </c>
+      <c r="E85">
+        <v>0.03564404629504062</v>
+      </c>
+      <c r="F85">
+        <v>-0.0197836523516644</v>
+      </c>
+      <c r="G85">
+        <v>-0.1071351543194292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00727910177454748</v>
+        <v>-0.0125672455700637</v>
       </c>
       <c r="C86">
-        <v>0.03129492238358435</v>
+        <v>-0.03455590427613422</v>
       </c>
       <c r="D86">
-        <v>0.03120615474691303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07447216720523214</v>
+      </c>
+      <c r="E86">
+        <v>0.004820344241961812</v>
+      </c>
+      <c r="F86">
+        <v>0.1506853805311908</v>
+      </c>
+      <c r="G86">
+        <v>0.02339471866058534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01149327257833321</v>
+        <v>-0.02086732333207901</v>
       </c>
       <c r="C87">
-        <v>0.02629207298878076</v>
+        <v>-0.01859639261821948</v>
       </c>
       <c r="D87">
-        <v>0.07908332083221577</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09677584554046008</v>
+      </c>
+      <c r="E87">
+        <v>0.04729715083875405</v>
+      </c>
+      <c r="F87">
+        <v>0.1122757030448771</v>
+      </c>
+      <c r="G87">
+        <v>0.04196738877373972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09876680710532133</v>
+        <v>-0.08993609540135937</v>
       </c>
       <c r="C88">
-        <v>0.07342007998019306</v>
+        <v>-0.06178013508040878</v>
       </c>
       <c r="D88">
-        <v>-0.02199656637621611</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007775932949884446</v>
+      </c>
+      <c r="E88">
+        <v>0.01367516253381857</v>
+      </c>
+      <c r="F88">
+        <v>0.07840178779437459</v>
+      </c>
+      <c r="G88">
+        <v>0.03235399801611657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1934089659349489</v>
+        <v>-0.2134894829862058</v>
       </c>
       <c r="C89">
-        <v>-0.3736306963779383</v>
+        <v>0.3780264476542186</v>
       </c>
       <c r="D89">
-        <v>-0.02082685102354688</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02036499793785692</v>
+      </c>
+      <c r="E89">
+        <v>0.009072528198454119</v>
+      </c>
+      <c r="F89">
+        <v>0.09185070790497822</v>
+      </c>
+      <c r="G89">
+        <v>0.07925731978199639</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1800578591515981</v>
+        <v>-0.1974421790190342</v>
       </c>
       <c r="C90">
-        <v>-0.3489820365004039</v>
+        <v>0.3220798249394379</v>
       </c>
       <c r="D90">
-        <v>0.01545510245145271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01157946581762101</v>
+      </c>
+      <c r="E90">
+        <v>0.0511909577437955</v>
+      </c>
+      <c r="F90">
+        <v>0.05599428225825745</v>
+      </c>
+      <c r="G90">
+        <v>0.02197785843627838</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2018587252096977</v>
+        <v>-0.1946385451935633</v>
       </c>
       <c r="C91">
-        <v>0.1072927386683843</v>
+        <v>-0.1331196931684902</v>
       </c>
       <c r="D91">
-        <v>-0.04496667775307472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09250663595969766</v>
+      </c>
+      <c r="E91">
+        <v>0.09590718449301693</v>
+      </c>
+      <c r="F91">
+        <v>0.056916695293426</v>
+      </c>
+      <c r="G91">
+        <v>-0.05237816814863946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1718822349488256</v>
+        <v>-0.1794882778243482</v>
       </c>
       <c r="C92">
-        <v>-0.2756267171192336</v>
+        <v>0.2800984057325116</v>
       </c>
       <c r="D92">
-        <v>0.008147492731311471</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004895662874476479</v>
+      </c>
+      <c r="E92">
+        <v>0.07172025804612696</v>
+      </c>
+      <c r="F92">
+        <v>0.07541302680515699</v>
+      </c>
+      <c r="G92">
+        <v>0.02654019133874452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1963041622597736</v>
+        <v>-0.2200064959915826</v>
       </c>
       <c r="C93">
-        <v>-0.3339006951636669</v>
+        <v>0.3222478003691333</v>
       </c>
       <c r="D93">
-        <v>0.01674788316228831</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001603574927532436</v>
+      </c>
+      <c r="E93">
+        <v>0.0409503611025747</v>
+      </c>
+      <c r="F93">
+        <v>0.05967672717369288</v>
+      </c>
+      <c r="G93">
+        <v>-0.01913903745215764</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2764144171289038</v>
+        <v>-0.343720646399794</v>
       </c>
       <c r="C94">
-        <v>0.1435503712928747</v>
+        <v>-0.1875364414692059</v>
       </c>
       <c r="D94">
-        <v>-0.1035135056997038</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4238603445093619</v>
+      </c>
+      <c r="E94">
+        <v>0.2871194656733774</v>
+      </c>
+      <c r="F94">
+        <v>-0.4290159850577887</v>
+      </c>
+      <c r="G94">
+        <v>0.2324807811492376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08815763568121435</v>
+        <v>-0.08309678876781484</v>
       </c>
       <c r="C95">
-        <v>0.08613217534326555</v>
+        <v>-0.08097264406373798</v>
       </c>
       <c r="D95">
-        <v>0.0597565757539823</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1406605688109445</v>
+      </c>
+      <c r="E95">
+        <v>-0.1452545494038943</v>
+      </c>
+      <c r="F95">
+        <v>0.06159366158734435</v>
+      </c>
+      <c r="G95">
+        <v>0.9057462611701698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2112031183362715</v>
+        <v>-0.1918994257523436</v>
       </c>
       <c r="C98">
-        <v>0.03588917819722848</v>
+        <v>-0.03970650671978743</v>
       </c>
       <c r="D98">
-        <v>0.03908023237545158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1534176012357455</v>
+      </c>
+      <c r="E98">
+        <v>-0.1742597267103701</v>
+      </c>
+      <c r="F98">
+        <v>-0.05137624082040271</v>
+      </c>
+      <c r="G98">
+        <v>-0.1037611369035914</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01130662791508505</v>
+        <v>-0.007831535267919196</v>
       </c>
       <c r="C101">
-        <v>0.02273476978200925</v>
+        <v>-0.02233822899611042</v>
       </c>
       <c r="D101">
-        <v>-0.01267050603052275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01474838092486472</v>
+      </c>
+      <c r="E101">
+        <v>0.01183141440200936</v>
+      </c>
+      <c r="F101">
+        <v>0.09692810992115775</v>
+      </c>
+      <c r="G101">
+        <v>0.0004686541036639773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1204260732857781</v>
+        <v>-0.1243804804683674</v>
       </c>
       <c r="C102">
-        <v>0.07427882672601056</v>
+        <v>-0.09607208492201215</v>
       </c>
       <c r="D102">
-        <v>-0.02489902808832047</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04566571920058704</v>
+      </c>
+      <c r="E102">
+        <v>0.009413939499452111</v>
+      </c>
+      <c r="F102">
+        <v>0.02673122908697212</v>
+      </c>
+      <c r="G102">
+        <v>-0.01238356294786178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
